--- a/src/test/resources/org/bbreak/excella/reports/tag/RowRepeatParamParserTest_expected.xlsx
+++ b/src/test/resources/org/bbreak/excella/reports/tag/RowRepeatParamParserTest_expected.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="105" windowWidth="15480" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="60" yWindow="45" windowWidth="15480" windowHeight="7635" tabRatio="778" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Sheet14" sheetId="11" r:id="rId10"/>
     <sheet name="Sheet15" sheetId="14" r:id="rId11"/>
     <sheet name="Sheet16" sheetId="15" r:id="rId12"/>
+    <sheet name="Sheet17" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="103">
   <si>
     <t>AA1</t>
   </si>
@@ -684,7 +685,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,12 +764,12 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -780,6 +781,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1606,7 +1610,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A4" s="26"/>
+      <c r="A4" s="27"/>
       <c r="C4" s="16" t="s">
         <v>97</v>
       </c>
@@ -1620,7 +1624,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A6" s="27"/>
+      <c r="A6" s="26"/>
       <c r="C6" s="16" t="s">
         <v>99</v>
       </c>
@@ -1637,7 +1641,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A8" s="27"/>
+      <c r="A8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="99.95" customHeight="1">
       <c r="A9" s="31" t="s">
@@ -1645,7 +1649,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A10" s="27"/>
+      <c r="A10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="99.95" customHeight="1">
       <c r="A11" s="31" t="s">
@@ -1653,7 +1657,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A12" s="27"/>
+      <c r="A12" s="26"/>
     </row>
     <row r="13" spans="1:3" ht="110.1" customHeight="1">
       <c r="A13" s="30" t="s">
@@ -1661,7 +1665,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="90" customHeight="1">
-      <c r="A14" s="26"/>
+      <c r="A14" s="27"/>
     </row>
     <row r="15" spans="1:3" ht="110.1" customHeight="1">
       <c r="A15" s="30" t="s">
@@ -1669,7 +1673,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="90" customHeight="1">
-      <c r="A16" s="26"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="17" spans="1:1" ht="110.1" customHeight="1">
       <c r="A17" s="30" t="s">
@@ -1677,7 +1681,7 @@
       </c>
     </row>
     <row r="18" spans="1:1" ht="90" customHeight="1">
-      <c r="A18" s="26"/>
+      <c r="A18" s="27"/>
     </row>
     <row r="19" spans="1:1" ht="110.1" customHeight="1">
       <c r="A19" s="30" t="s">
@@ -1685,7 +1689,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" ht="90" customHeight="1">
-      <c r="A20" s="26"/>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:1" ht="110.1" customHeight="1">
       <c r="A21" s="30" t="s">
@@ -1693,7 +1697,7 @@
       </c>
     </row>
     <row r="22" spans="1:1" ht="90" customHeight="1">
-      <c r="A22" s="26"/>
+      <c r="A22" s="27"/>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="16" t="s">
@@ -1746,7 +1750,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A4" s="27"/>
+      <c r="A4" s="26"/>
     </row>
     <row r="5" spans="1:3" ht="99.95" customHeight="1">
       <c r="A5" s="31" t="s">
@@ -1754,7 +1758,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A6" s="27"/>
+      <c r="A6" s="26"/>
     </row>
     <row r="7" spans="1:3" ht="99.95" customHeight="1">
       <c r="A7" s="31" t="s">
@@ -1762,7 +1766,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A8" s="27"/>
+      <c r="A8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="99.95" customHeight="1">
       <c r="A9" s="31" t="s">
@@ -1770,7 +1774,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A10" s="27"/>
+      <c r="A10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="99.95" customHeight="1">
       <c r="A11" s="31" t="s">
@@ -1778,7 +1782,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A12" s="27"/>
+      <c r="A12" s="26"/>
       <c r="C12" s="16" t="s">
         <v>91</v>
       </c>
@@ -1792,7 +1796,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="90" customHeight="1">
-      <c r="A14" s="26"/>
+      <c r="A14" s="27"/>
     </row>
     <row r="15" spans="1:3" ht="110.1" customHeight="1">
       <c r="A15" s="30" t="s">
@@ -1800,7 +1804,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="90" customHeight="1">
-      <c r="A16" s="26"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="17" spans="1:3" ht="110.1" customHeight="1">
       <c r="A17" s="30" t="s">
@@ -1808,7 +1812,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="90" customHeight="1">
-      <c r="A18" s="26"/>
+      <c r="A18" s="27"/>
     </row>
     <row r="19" spans="1:3" ht="110.1" customHeight="1">
       <c r="A19" s="30" t="s">
@@ -1816,7 +1820,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="90" customHeight="1">
-      <c r="A20" s="26"/>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:3" ht="110.1" customHeight="1">
       <c r="A21" s="30" t="s">
@@ -1824,7 +1828,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="90" customHeight="1">
-      <c r="A22" s="26"/>
+      <c r="A22" s="27"/>
       <c r="C22" s="16" t="s">
         <v>93</v>
       </c>
@@ -1856,6 +1860,52 @@
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2287,11 +2337,11 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
       <c r="F3" t="s">
         <v>34</v>
       </c>
@@ -2315,11 +2365,11 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" t="s">
         <v>37</v>
       </c>
@@ -2342,10 +2392,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="E7" s="26"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="E7" s="27"/>
       <c r="F7" t="s">
         <v>40</v>
       </c>
@@ -2363,9 +2413,9 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="25" t="s">
@@ -2382,9 +2432,9 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
     </row>
     <row r="12" spans="1:6">
       <c r="E12" t="s">
@@ -2397,7 +2447,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="27"/>
+      <c r="A15" s="26"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="25" t="s">
@@ -2405,7 +2455,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="27"/>
+      <c r="A17" s="26"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="25" t="s">
@@ -2413,7 +2463,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="27"/>
+      <c r="A19" s="26"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="25" t="s">
@@ -2421,7 +2471,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="27"/>
+      <c r="A21" s="26"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="25" t="s">
@@ -2429,7 +2479,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="26"/>
+      <c r="A23" s="27"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
@@ -2444,17 +2494,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -2469,6 +2508,17 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <hyperlinks>
@@ -2489,7 +2539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:A16"/>
     </sheetView>
   </sheetViews>
@@ -2531,11 +2581,11 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
       <c r="F4" t="s">
         <v>36</v>
       </c>
@@ -2566,11 +2616,11 @@
       <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="25" t="s">
@@ -2596,10 +2646,10 @@
       <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="E10" s="26"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="26"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="25" t="s">
@@ -2619,9 +2669,9 @@
       <c r="C12" s="28"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="25" t="s">
@@ -2640,9 +2690,9 @@
       <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
@@ -2657,12 +2707,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
@@ -2677,6 +2721,12 @@
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <hyperlinks>

--- a/src/test/resources/org/bbreak/excella/reports/tag/RowRepeatParamParserTest_expected.xlsx
+++ b/src/test/resources/org/bbreak/excella/reports/tag/RowRepeatParamParserTest_expected.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="45" windowWidth="15480" windowHeight="7635" tabRatio="778" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="60" yWindow="45" windowWidth="15480" windowHeight="7635" tabRatio="778" firstSheet="3" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="Sheet15" sheetId="14" r:id="rId11"/>
     <sheet name="Sheet16" sheetId="15" r:id="rId12"/>
     <sheet name="Sheet17" sheetId="16" r:id="rId13"/>
+    <sheet name="Sheet18" sheetId="20" r:id="rId14"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="123">
   <si>
     <t>AA1</t>
   </si>
@@ -464,6 +465,78 @@
   <si>
     <t>A7</t>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AA1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BB1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>AA2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>BB2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>AA3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>A10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>C10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D10</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -529,7 +602,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -614,6 +687,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -685,7 +764,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,6 +838,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -784,6 +866,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1579,7 +1667,7 @@
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1602,7 +1690,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="99.95" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -1610,13 +1698,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="C4" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="99.95" customHeight="1">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="16" t="s">
@@ -1624,13 +1712,13 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A6" s="26"/>
+      <c r="A6" s="27"/>
       <c r="C6" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="99.95" customHeight="1">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -1641,63 +1729,63 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A8" s="26"/>
+      <c r="A8" s="27"/>
     </row>
     <row r="9" spans="1:3" ht="99.95" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A10" s="26"/>
+      <c r="A10" s="27"/>
     </row>
     <row r="11" spans="1:3" ht="99.95" customHeight="1">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A12" s="26"/>
+      <c r="A12" s="27"/>
     </row>
     <row r="13" spans="1:3" ht="110.1" customHeight="1">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="90" customHeight="1">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
     </row>
     <row r="15" spans="1:3" ht="110.1" customHeight="1">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="90" customHeight="1">
-      <c r="A16" s="27"/>
+      <c r="A16" s="28"/>
     </row>
     <row r="17" spans="1:1" ht="110.1" customHeight="1">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="31" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="90" customHeight="1">
-      <c r="A18" s="27"/>
+      <c r="A18" s="28"/>
     </row>
     <row r="19" spans="1:1" ht="110.1" customHeight="1">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="31" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="90" customHeight="1">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
     </row>
     <row r="21" spans="1:1" ht="110.1" customHeight="1">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="31" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="90" customHeight="1">
-      <c r="A22" s="27"/>
+      <c r="A22" s="28"/>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="16" t="s">
@@ -1719,7 +1807,7 @@
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1742,7 +1830,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="99.95" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -1750,45 +1838,45 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A4" s="26"/>
+      <c r="A4" s="27"/>
     </row>
     <row r="5" spans="1:3" ht="99.95" customHeight="1">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A6" s="26"/>
+      <c r="A6" s="27"/>
     </row>
     <row r="7" spans="1:3" ht="99.95" customHeight="1">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A8" s="26"/>
+      <c r="A8" s="27"/>
     </row>
     <row r="9" spans="1:3" ht="99.95" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A10" s="26"/>
+      <c r="A10" s="27"/>
     </row>
     <row r="11" spans="1:3" ht="99.95" customHeight="1">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A12" s="26"/>
+      <c r="A12" s="27"/>
       <c r="C12" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="110.1" customHeight="1">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -1796,39 +1884,39 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="90" customHeight="1">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
     </row>
     <row r="15" spans="1:3" ht="110.1" customHeight="1">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="90" customHeight="1">
-      <c r="A16" s="27"/>
+      <c r="A16" s="28"/>
     </row>
     <row r="17" spans="1:3" ht="110.1" customHeight="1">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="31" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="90" customHeight="1">
-      <c r="A18" s="27"/>
+      <c r="A18" s="28"/>
     </row>
     <row r="19" spans="1:3" ht="110.1" customHeight="1">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="31" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="90" customHeight="1">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
     </row>
     <row r="21" spans="1:3" ht="110.1" customHeight="1">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="31" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="90" customHeight="1">
-      <c r="A22" s="27"/>
+      <c r="A22" s="28"/>
       <c r="C22" s="16" t="s">
         <v>93</v>
       </c>
@@ -1859,7 +1947,7 @@
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1867,7 +1955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -1897,8 +1985,8 @@
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1906,6 +1994,152 @@
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="F1" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="D8" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="D9" s="34"/>
+      <c r="F9" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="F10" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="D11" s="34"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="D16" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E7:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2317,19 +2551,19 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="25" t="s">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>32</v>
       </c>
       <c r="F2" t="s">
@@ -2337,27 +2571,27 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
       <c r="F3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="25" t="s">
+      <c r="A4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>35</v>
       </c>
       <c r="F4" t="s">
@@ -2365,26 +2599,26 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
       <c r="F5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="25" t="s">
+      <c r="A6" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>38</v>
       </c>
       <c r="F6" t="s">
@@ -2392,20 +2626,20 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="E7" s="28"/>
       <c r="F7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25" t="s">
+      <c r="A8" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F8" t="s">
@@ -2413,18 +2647,18 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="16" t="s">
@@ -2432,9 +2666,9 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
     </row>
     <row r="12" spans="1:6">
       <c r="E12" t="s">
@@ -2442,44 +2676,44 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="26"/>
+      <c r="A15" s="27"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="26" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="26"/>
+      <c r="A19" s="27"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="26"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="27"/>
+      <c r="A23" s="28"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
@@ -2527,7 +2761,7 @@
     <hyperlink ref="E6" location="'Sheet3'!A1" display="place"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="5" max="16383" man="1"/>
     <brk id="9" max="16383" man="1"/>
@@ -2551,19 +2785,19 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="25" t="s">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>32</v>
       </c>
       <c r="F2" t="s">
@@ -2571,37 +2805,37 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
       <c r="F3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="F4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="25" t="s">
+      <c r="A5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>35</v>
       </c>
       <c r="F5" t="s">
@@ -2609,54 +2843,54 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="25" t="s">
+      <c r="A8" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="E9" s="28"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="26"/>
-      <c r="E10" s="27"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="27"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25" t="s">
+      <c r="A11" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26" t="s">
         <v>1</v>
       </c>
       <c r="E11" t="s">
@@ -2664,35 +2898,35 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
@@ -2735,7 +2969,7 @@
     <hyperlink ref="E8" location="'Sheet3'!A1" display="place"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="7" max="16383" man="1"/>
     <brk id="13" max="16383" man="1"/>
@@ -2868,7 +3102,7 @@
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2997,7 +3231,7 @@
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3110,6 +3344,6 @@
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>